--- a/data/financial_statements/sofp/TXT.xlsx
+++ b/data/financial_statements/sofp/TXT.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -116,9 +236,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -171,12 +288,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -473,1541 +587,1577 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN32"/>
+  <dimension ref="A1:AO32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>1963000000</v>
+      </c>
+      <c r="C2">
         <v>1884000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1841000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>2126000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2117000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2182000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>2188000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>2078000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>2254000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>2670000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>2346000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>2446000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>1357000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>1053000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>857000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>742000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>1107000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>1293000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>731000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>836000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>1262000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>1294000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>1129000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>997000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>1298000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>739000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>743000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>778000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>1005000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>614000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>792000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>708000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>822000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>511000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>815000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>780000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>1211000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>637000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>571000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>791000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>855000000</v>
+      </c>
+      <c r="C3">
         <v>836000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>876000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>800000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>838000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>773000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>822000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>883000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>787000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>872000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>764000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>870000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>921000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>1018000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>989000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>1059000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>1024000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>1026000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>1121000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>1110000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>1363000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>1344000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>1236000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>1198000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>1064000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>1139000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>1144000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>1209000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>1047000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>1159000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>1163000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>1133000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>1035000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>1150000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>1200000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>1141000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>979000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>1024000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>1007000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>954000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>3550000000</v>
+      </c>
+      <c r="C4">
         <v>3817000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>3739000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>3663000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>3468000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>3670000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>3664000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>3705000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>3513000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>4252000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>4262000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>4385000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>4069000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>4436000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>4311000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>4047000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>3818000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>4030000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>3925000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>4090000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>4150000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>4518000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>4655000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>4709000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>4464000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>4791000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>4595000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>4477000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>4144000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>4574000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>4437000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>4236000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>3928000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>4081000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>4017000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>3909000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>2963000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>3220000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>3203000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>2972000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>1033000000</v>
+      </c>
+      <c r="C5">
         <v>943000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>972000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1055000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1018000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>890000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>874000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>899000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>950000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>825000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>863000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>984000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>894000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>856000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>839000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>835000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>785000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>706000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>1170000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>933000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>435000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>408000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>357000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>361000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>388000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>348000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>370000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>328000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>341000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>507000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>512000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>563000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>320000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>539000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>578000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>603000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>467000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>501000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>489000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>445000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>7401000000</v>
+      </c>
+      <c r="C6">
         <v>8046000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>7989000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>8222000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>8046000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>8111000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>8200000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>8237000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>8248000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>9312000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>8926000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>9366000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>7923000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>8093000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>7772000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>7439000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>7494000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>7841000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>7710000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>7750000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>8029000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>8388000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>8217000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>8165000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>8149000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>7986000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>7837000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>7858000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>7624000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>7992000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>8066000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>7843000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>7343000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>7589000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>7977000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>7867000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>7113000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>6909000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>6886000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>6996000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>2523000000</v>
+      </c>
+      <c r="C7">
         <v>2443000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>2469000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>2488000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2538000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>2469000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>2488000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>2478000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>2516000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>2438000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>2446000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>2483000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>2527000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>2497000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>2517000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>2523000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>2615000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>2593000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>2608000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>2711000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>2721000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>2701000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>2669000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>2637000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>2581000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>2568000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>2582000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>2560000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>2492000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>2488000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>2462000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>2460000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>2497000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>2442000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>2463000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>2456000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>2215000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>2163000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>2141000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>2134000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>2283000000</v>
+      </c>
+      <c r="C8">
         <v>2262000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>2278000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>2147000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>2149000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>2152000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>2155000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>2152000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>2157000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>2159000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>2153000000</v>
-      </c>
-      <c r="L8">
-        <v>2150000000</v>
       </c>
       <c r="M8">
         <v>2150000000</v>
       </c>
       <c r="N8">
+        <v>2150000000</v>
+      </c>
+      <c r="O8">
         <v>2142000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>2147000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>2141000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>2218000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>2209000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>2207000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>2368000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>2364000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>2354000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>2340000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>2332000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>2113000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>2121000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>2118000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>2114000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>2023000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>2026000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>2015000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>2013000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>2027000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>2020000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>2006000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>1980000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>1735000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>1675000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>1670000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>1645000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>4086000000</v>
+      </c>
+      <c r="C9">
         <v>3205000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>3143000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>3054000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>3094000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>2537000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>2536000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>2547000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>2522000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>1952000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>1946000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>1947000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>2418000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>2330000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>2360000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>2377000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>1937000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>2026000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>2033000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>2139000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>2226000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>2432000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>2549000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>2569000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>2515000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>2492000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>2497000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>2567000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>2569000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>2392000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>2405000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>2422000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>2738000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>2688000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>2689000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>2660000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>1881000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>1710000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>1743000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>1782000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>8892000000</v>
+      </c>
+      <c r="C10">
         <v>7910000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>7890000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>7689000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>7781000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>7158000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>7179000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>7177000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>7195000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>6549000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>6545000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>6580000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>7095000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>6969000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>7024000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>7041000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>6770000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>6828000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>6848000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>7218000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>7311000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>7487000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>7558000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>7538000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>7209000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>7181000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>7197000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>7241000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>7084000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>6906000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>6882000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>6895000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>7262000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>7150000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>7158000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>7096000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>5831000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>5548000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>5554000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>5561000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>16293000000</v>
+      </c>
+      <c r="C11">
         <v>15956000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>15879000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>15911000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>15827000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>15269000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>15379000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>15414000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>15443000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>15861000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>15471000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>15946000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>15018000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>15062000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>14796000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>14480000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>14264000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>14669000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>14558000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>14968000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>15340000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>15875000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>15775000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>15703000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>15358000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>15167000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>15034000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>15099000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>14708000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>14898000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>14948000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>14738000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>14605000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>14739000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>15135000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>14963000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>12944000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>12457000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>12440000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>12557000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>1018000000</v>
+      </c>
+      <c r="C12">
         <v>887000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>807000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>823000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>786000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>775000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>965000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1033000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>776000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>1121000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>982000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>1322000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>1378000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>1226000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>1231000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>1147000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>1099000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>1104000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>1147000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>1229000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>1205000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>1173000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>1200000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>1230000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>1273000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>1216000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>1218000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>1227000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>1063000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>1173000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>1129000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>1130000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>1014000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>1135000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>1166000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>1158000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>1107000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>1004000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>966000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>1052000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="V13">
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W13">
         <v>2504000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>2443000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>2331000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>2257000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>2278000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>2202000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>2341000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>2467000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>2602000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>2671000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>2570000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>2616000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>2375000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>2433000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>2237000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>1888000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>1775000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>1649000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>1724000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
         <v>7000000</v>
@@ -2019,946 +2169,964 @@
         <v>7000000</v>
       </c>
       <c r="E14">
+        <v>7000000</v>
+      </c>
+      <c r="F14">
         <v>6000000</v>
-      </c>
-      <c r="F14">
-        <v>7000000</v>
       </c>
       <c r="G14">
         <v>7000000</v>
       </c>
       <c r="H14">
+        <v>7000000</v>
+      </c>
+      <c r="I14">
         <v>257000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>509000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>859000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>1107000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>1396000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>561000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>568000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>457000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>363000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>258000000</v>
-      </c>
-      <c r="R14">
-        <v>9000000</v>
       </c>
       <c r="S14">
         <v>9000000</v>
       </c>
       <c r="T14">
+        <v>9000000</v>
+      </c>
+      <c r="U14">
         <v>16000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>14000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>364000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>362000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>462000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>363000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>126000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>278000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>309000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>262000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>414000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>263000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>34000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>8000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>383000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>358000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>543000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>8000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>104000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>374000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>426000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>2645000000</v>
+      </c>
+      <c r="C15">
         <v>2733000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>2660000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>2507000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>2344000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>2270000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>2035000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>1833000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>1938000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>2011000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>1983000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>1797000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>1907000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>1972000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>1891000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>1922000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>2149000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>2310000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>2241000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>2104000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>2441000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>2504000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>3670000000</v>
+      </c>
+      <c r="C16">
         <v>3627000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>3474000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>3337000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>3136000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>3052000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>3007000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>3123000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>3270000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>3991000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>4072000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>4515000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>3846000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>3766000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>3579000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>3432000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>3506000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>3423000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>3397000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>3349000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>3660000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>4041000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>4005000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>4023000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>3893000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>3620000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>3698000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>3877000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>3792000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>4189000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>4063000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>3734000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>3638000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>3893000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>3957000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>3938000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>3003000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>5387000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>2989000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>3202000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>3175000000</v>
+      </c>
+      <c r="C17">
         <v>3556000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>3559000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>3648000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>3761000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>3765000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>3826000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>3836000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>3198000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>3865000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>3625000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>3638000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>3249000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>3604000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>3613000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>3523000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>3526000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>3857000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>3879000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>3902000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>3898000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>3919000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>3642000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>3653000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>3317000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>3696000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>3634000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>3688000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>3348000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>3358000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>3621000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>3811000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>3866000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>3585000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>3899000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>3929000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>3179000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>3194000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>3235000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>3307000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18">
         <v>-19000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>11000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>-342000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>10000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>-31000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>-10000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>-269000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>2335000000</v>
+      </c>
+      <c r="C19">
         <v>2011000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>2045000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>2009000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>2115000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>2415000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>2445000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>2459000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>3130000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>2264000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>2247000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>2259000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>2405000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>2240000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>2268000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>2292000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>2040000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>1846000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>1920000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>2025000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>2135000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>2097000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>2446000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>2445000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>2574000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>2200000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>2516000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>2545000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>2604000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>2655000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>2662000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>2803000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>2829000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>2689000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>2701000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>2733000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>2378000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>296000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>2836000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>2900000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>5510000000</v>
+      </c>
+      <c r="C20">
         <v>5567000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>5604000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>5657000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>5876000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>6180000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>6271000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>6295000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>6328000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>6129000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>5872000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>5897000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>5654000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>5844000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>5881000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>5815000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>5566000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>5703000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>5799000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>5927000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>6033000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>6016000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>6088000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>6098000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>5891000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>5896000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>6150000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>6233000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>5952000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>6013000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>6283000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>6614000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>6695000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>6274000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>6600000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>6662000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>5557000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>3490000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>6071000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>6207000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>9180000000</v>
+      </c>
+      <c r="C21">
         <v>9194000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>9078000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>8994000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>9012000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>9232000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>9278000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>9418000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>9598000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>10120000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>9944000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>10412000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>9500000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>9610000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>9460000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>9247000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>9072000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>9126000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>9196000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>9276000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>9693000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>10057000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>10093000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>10121000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>9784000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>9516000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>9848000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>10110000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>9744000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>10202000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>10346000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>10348000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>10333000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>10167000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>10557000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>10600000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>8560000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>8877000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>9060000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>9409000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22">
         <v>1980000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>1953000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>1924000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>1863000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>1969000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>1920000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>1845000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>1785000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>1762000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>1732000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>1711000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>1674000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>1741000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>1717000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>1689000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>1646000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>1819000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>1774000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>1710000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>1669000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>1711000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>1674000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>1648000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>1599000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>1674000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>1643000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>1617000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>1587000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>1561000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>1535000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>1499000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>1459000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>1432000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>1409000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>1376000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>1331000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>1372000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>1344000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>1114000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>28000000</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C23">
         <v>28000000</v>
@@ -2970,7 +3138,7 @@
         <v>28000000</v>
       </c>
       <c r="F23">
-        <v>29000000</v>
+        <v>28000000</v>
       </c>
       <c r="G23">
         <v>29000000</v>
@@ -2994,7 +3162,7 @@
         <v>29000000</v>
       </c>
       <c r="N23">
-        <v>30000000</v>
+        <v>29000000</v>
       </c>
       <c r="O23">
         <v>30000000</v>
@@ -3006,7 +3174,7 @@
         <v>30000000</v>
       </c>
       <c r="R23">
-        <v>33000000</v>
+        <v>30000000</v>
       </c>
       <c r="S23">
         <v>33000000</v>
@@ -3018,7 +3186,7 @@
         <v>33000000</v>
       </c>
       <c r="V23">
-        <v>34000000</v>
+        <v>33000000</v>
       </c>
       <c r="W23">
         <v>34000000</v>
@@ -3030,7 +3198,7 @@
         <v>34000000</v>
       </c>
       <c r="Z23">
-        <v>36000000</v>
+        <v>34000000</v>
       </c>
       <c r="AA23">
         <v>36000000</v>
@@ -3057,7 +3225,7 @@
         <v>36000000</v>
       </c>
       <c r="AI23">
-        <v>35000000</v>
+        <v>36000000</v>
       </c>
       <c r="AJ23">
         <v>35000000</v>
@@ -3066,167 +3234,167 @@
         <v>35000000</v>
       </c>
       <c r="AL23">
-        <v>37000000</v>
+        <v>35000000</v>
       </c>
       <c r="AM23">
         <v>37000000</v>
       </c>
       <c r="AN23">
+        <v>37000000</v>
+      </c>
+      <c r="AO23">
         <v>35000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24">
         <v>6492000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>6271000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>6058000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>5870000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>6498000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>6318000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>6139000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>5973000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>5741000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>5631000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>5727000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>5682000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>6009000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>5794000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>5581000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>5407000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>6419000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>5861000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>5642000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>5368000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>5943000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>5789000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>5641000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>5546000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>6030000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>5614000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>5442000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>5298000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>5077000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>4907000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>4745000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>4623000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>4416000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>4263000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>4124000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>4045000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>4138000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>4044000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>3937000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25">
         <v>796000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>596000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>314000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>157000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>789000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>490000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>294000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>203000000</v>
-      </c>
-      <c r="J25">
-        <v>74000000</v>
       </c>
       <c r="K25">
         <v>74000000</v>
@@ -3235,43 +3403,43 @@
         <v>74000000</v>
       </c>
       <c r="M25">
+        <v>74000000</v>
+      </c>
+      <c r="N25">
         <v>20000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>599000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>490000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>331000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>129000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>1431000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>963000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>392000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>48000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>451000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>329000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>186000000</v>
-      </c>
-      <c r="Z25">
-        <v>774000000</v>
       </c>
       <c r="AA25">
         <v>774000000</v>
@@ -3280,890 +3448,908 @@
         <v>774000000</v>
       </c>
       <c r="AC25">
+        <v>774000000</v>
+      </c>
+      <c r="AD25">
         <v>559000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>551000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>427000000</v>
-      </c>
-      <c r="AF25">
-        <v>340000000</v>
       </c>
       <c r="AG25">
         <v>340000000</v>
       </c>
       <c r="AH25">
+        <v>340000000</v>
+      </c>
+      <c r="AI25">
         <v>302000000</v>
-      </c>
-      <c r="AI25">
-        <v>150000000</v>
       </c>
       <c r="AJ25">
         <v>150000000</v>
       </c>
-      <c r="AL25">
-        <v>316000000</v>
+      <c r="AK25">
+        <v>150000000</v>
       </c>
       <c r="AM25">
         <v>316000000</v>
       </c>
       <c r="AN25">
+        <v>316000000</v>
+      </c>
+      <c r="AO25">
         <v>183000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26">
         <v>6762000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>6801000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>6917000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>6815000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>6037000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>6101000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>5996000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>5845000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>5741000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>5527000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>5534000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>5518000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>5452000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>5336000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>5233000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>5192000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>5543000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>5362000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>5692000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>5647000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>5818000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>5682000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>5582000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>5574000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>5651000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>5186000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>4989000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>4964000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>4696000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>4602000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>4390000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>4272000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>4572000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>4578000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>4363000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>4384000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>3580000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>3380000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>3148000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>7113000000</v>
+      </c>
+      <c r="C27">
         <v>6762000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>6801000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>6917000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>6815000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>6037000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>6101000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>5996000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>5845000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>5741000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>5527000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>5534000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>5518000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>5452000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>5336000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>5233000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>5192000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>5543000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>5362000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>5692000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>5647000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>5818000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>5682000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>5582000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>5574000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>5651000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>5186000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>4989000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>4964000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>4696000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>4602000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>4390000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>4272000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>4572000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>4578000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>4363000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>4384000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>3580000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>3380000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>3148000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>16293000000</v>
+      </c>
+      <c r="C28">
         <v>15956000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>15879000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>15911000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>15827000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>15269000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>15379000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>15414000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>15443000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>15861000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>15471000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>15946000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>15018000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>15062000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>14796000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>14480000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>14264000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>14669000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>14558000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>14968000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>15340000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>15875000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>15775000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>15703000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>15358000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>15167000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>15034000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>15099000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>14708000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>14898000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>14948000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>14738000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>14605000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>14739000000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>15135000000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>14963000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>12944000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>12457000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>12440000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>12557000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29">
         <v>209067000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>211825000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>215751000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>216935000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>220425000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>224402000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>225898000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>226400000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>228790000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>227953000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>227379000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>228000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>228235000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>230058000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>232699000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>235600000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>242892000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>248910000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>256375000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>261500000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>263410000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>265113000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>267717000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>270300000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>270134000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>269344000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>268721000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>274200000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>273862000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>276342000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>277497000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>276600000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>276195000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>279748000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>278888000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>282100000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>281071000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>280390000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>276081000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>4830000000</v>
+      </c>
+      <c r="C30">
         <v>4500000000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>4523000000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>4770000000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>4666000000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>3885000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>3946000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>3844000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>3688000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>3582000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>3374000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>3384000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>3368000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>3310000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>3189000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>3092000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>2974000000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>3334000000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>3155000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>3324000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>3283000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>3464000000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>3342000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>3250000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>3461000000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>3530000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>3068000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>2875000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>2941000000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>2670000000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>2587000000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>2377000000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>2245000000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>2552000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>2572000000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>2383000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>2649000000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>1905000000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>1710000000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>1503000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>1219000000</v>
+      </c>
+      <c r="C31">
         <v>1679000000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>1725000000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>1529000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>1650000000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>1590000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>1645000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>2015000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>1453000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>2054000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>2386000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>2588000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>2453000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>3119000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>3213000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>3144000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>2677000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>2573000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>3157000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>3082000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>2650000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>2989000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>2875000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>3118000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>2382000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>3083000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>3169000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>3219000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>2605000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>3158000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>3092000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>3137000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>3052000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>3457000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>3442000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>3692000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>1976000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>2661000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>3038000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>2942000000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
+        <v>3182000000</v>
+      </c>
+      <c r="C32">
         <v>3563000000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>3566000000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>3655000000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>3767000000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>3772000000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>3833000000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>4093000000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>3707000000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>4724000000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>4732000000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>5034000000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>3810000000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>4172000000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>4070000000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>3886000000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>3784000000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>3866000000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>3888000000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>3918000000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>3912000000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>4283000000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>4004000000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>4115000000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>3680000000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>3822000000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>3912000000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>3997000000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>3610000000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>3772000000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>3884000000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>3845000000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>3874000000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>3968000000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>4257000000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>4472000000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>3187000000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>3298000000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>3609000000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>3733000000</v>
       </c>
     </row>
